--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.03619162585787405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03301716746434894</v>
+        <v>0.03301716746434895</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01977053456143597</v>
+        <v>0.01981464491528668</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02705208983275195</v>
+        <v>0.02751390518439996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02650559368648586</v>
+        <v>0.02689438273554092</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04250019360612461</v>
+        <v>0.04350368855930079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04530621176965483</v>
+        <v>0.04599703526026304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04095637841667554</v>
+        <v>0.04114747576918881</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01028963045341262</v>
+        <v>0.0104665364778477</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01872101330990824</v>
+        <v>0.01941335105924541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01684287619411143</v>
+        <v>0.01648460212599914</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03021250750941117</v>
+        <v>0.02984382629874907</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0333192528573279</v>
+        <v>0.03410359410597882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02876763746702868</v>
+        <v>0.02944281201426004</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007477236271746609</v>
+        <v>0.006822371849591476</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008461844437234635</v>
+        <v>0.009007411771355438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009389900231966054</v>
+        <v>0.009431481314538828</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0242347674498385</v>
+        <v>0.02205973041401035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02247087075928733</v>
+        <v>0.02263368131776197</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01968265615443212</v>
+        <v>0.01985982586679386</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007457806516330134</v>
+        <v>0.007743869347012172</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01491289342505262</v>
+        <v>0.014799038067904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0127215767583793</v>
+        <v>0.01268109792560795</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01991923040274616</v>
+        <v>0.02104273781941796</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02854160435209896</v>
+        <v>0.02767130381028185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02144314220637419</v>
+        <v>0.0219301482684725</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.02369516945917878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02069073089525288</v>
+        <v>0.02069073089525289</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01378056500794678</v>
+        <v>0.01407916786205429</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02026599933833883</v>
+        <v>0.02040324928141576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0180989167348881</v>
+        <v>0.01799742098249282</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02230196074124071</v>
+        <v>0.02295733407109047</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02774028896986102</v>
+        <v>0.02794532562455269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0237695192801975</v>
+        <v>0.02356427663386767</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13646</v>
+        <v>13677</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19861</v>
+        <v>20200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37755</v>
+        <v>38309</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29335</v>
+        <v>30027</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33263</v>
+        <v>33770</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58339</v>
+        <v>58611</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10793</v>
+        <v>10979</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20059</v>
+        <v>20801</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35713</v>
+        <v>34954</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31690</v>
+        <v>31304</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35701</v>
+        <v>36541</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>60999</v>
+        <v>62430</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6005</v>
+        <v>5479</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6873</v>
+        <v>7316</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15168</v>
+        <v>15235</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19462</v>
+        <v>17716</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18252</v>
+        <v>18384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31794</v>
+        <v>32080</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7379</v>
+        <v>7662</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16670</v>
+        <v>16542</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26808</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19709</v>
+        <v>20821</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31904</v>
+        <v>30931</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45186</v>
+        <v>46212</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48668</v>
+        <v>49723</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75708</v>
+        <v>76221</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>131532</v>
+        <v>130794</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>78763</v>
+        <v>81078</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>103630</v>
+        <v>104396</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>172742</v>
+        <v>171251</v>
       </c>
     </row>
     <row r="24">
